--- a/data/trans_camb/P1001-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.374949006118646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.197927167930408</v>
+        <v>2.197927167930411</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.694917449687228</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.23932319926162</v>
+        <v>-7.37321250773484</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.814414331274621</v>
+        <v>-6.889722459169724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.36892432858579</v>
+        <v>-1.886035871077749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.213027951237433</v>
+        <v>2.412734619341976</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.224434464506096</v>
+        <v>-1.224498703498786</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.64913377238586</v>
+        <v>2.986125421795037</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.9005558007016</v>
+        <v>-1.54915584086556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.093318941716704</v>
+        <v>-3.074698095954188</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.466576421608555</v>
+        <v>1.583668450622984</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.16996923008194</v>
+        <v>-0.9311107085630577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2411541888705224</v>
+        <v>-0.2267422308865073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.017053880608122</v>
+        <v>6.837419769676763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.116754150066299</v>
+        <v>9.505156398082168</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.068182979556184</v>
+        <v>5.265763435883199</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.00069055399934</v>
+        <v>10.45548660485413</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.045480100070112</v>
+        <v>3.302287522594888</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.52942631950204</v>
+        <v>1.584181363902526</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.239259504352064</v>
+        <v>7.339141749141363</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2709517617298927</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1764566626710691</v>
+        <v>0.1764566626710693</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3772253573400185</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4990064036817909</v>
+        <v>-0.5081742335598157</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4650417849254085</v>
+        <v>-0.4625294016979458</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1604561088811279</v>
+        <v>-0.1383862219696052</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1295910696878769</v>
+        <v>0.1430174870181741</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07114282262585339</v>
+        <v>-0.07121584715072324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1577269188684172</v>
+        <v>0.1631907650107794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1236056528306719</v>
+        <v>-0.09985080004786037</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1987300078967919</v>
+        <v>-0.1972995860302351</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09411623514424282</v>
+        <v>0.1003156449278607</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1050684201283331</v>
+        <v>-0.08439599376290856</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02511750242454317</v>
+        <v>-0.02404204553378706</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5565668348202454</v>
+        <v>0.6516281357633373</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6860359323602889</v>
+        <v>0.7099881952260311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3681765770668953</v>
+        <v>0.3886595077208109</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7378130410143875</v>
+        <v>0.7732376375744114</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2330569928719298</v>
+        <v>0.261813095433992</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1224109686910027</v>
+        <v>0.1259269597482509</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5696089132670215</v>
+        <v>0.5514360542426348</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.15181237408479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9299856853870401</v>
+        <v>0.9299856853870386</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.267031339328557</v>
@@ -869,7 +869,7 @@
         <v>1.676635280782324</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.658950630370359</v>
+        <v>4.658950630370357</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.829566475692271</v>
@@ -878,7 +878,7 @@
         <v>0.3747685594008676</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.990576933692417</v>
+        <v>2.990576933692415</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.392057732759882</v>
+        <v>-1.198013975881376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.224484908517415</v>
+        <v>-3.102299622443154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.375540872705293</v>
+        <v>-1.111010768419512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.662065633394319</v>
+        <v>3.448482533177059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6901411655796402</v>
+        <v>-0.8802361604761065</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.20820431665552</v>
+        <v>2.26791014472795</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.947005405297006</v>
+        <v>2.121671472639798</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.303965577406332</v>
+        <v>-1.252263627420996</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.331722839246667</v>
+        <v>1.313172490556657</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.181260547507993</v>
+        <v>3.541406248393911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9938733626056134</v>
+        <v>0.8031115570234458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.123509966710815</v>
+        <v>3.393622105934954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.128647886355855</v>
+        <v>9.029528992011157</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.376357360229807</v>
+        <v>4.113896699153078</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.955981827982528</v>
+        <v>6.896402061031945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.560476435198694</v>
+        <v>5.68909452660081</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.9129418293909</v>
+        <v>2.008587995185604</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.693118275379661</v>
+        <v>4.506894956345484</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1870628631093162</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1510365653932218</v>
+        <v>0.1510365653932216</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.8369788373638533</v>
@@ -974,7 +974,7 @@
         <v>0.2239191368305422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6222153473961656</v>
+        <v>0.6222153473961652</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5618349038347729</v>
@@ -983,7 +983,7 @@
         <v>0.05498221766557015</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.438746922038437</v>
+        <v>0.4387469220384367</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2001853891980187</v>
+        <v>-0.1810295264606577</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4506851705198384</v>
+        <v>-0.4413960423185717</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1970428012897733</v>
+        <v>-0.1528471162682136</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4432271103576799</v>
+        <v>0.3967189988528668</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08303227660932309</v>
+        <v>-0.09997963476111009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2624693463514001</v>
+        <v>0.2599106678453677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2553322208694977</v>
+        <v>0.2790298031665628</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1718497111443746</v>
+        <v>-0.1694800269425235</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1709051851149774</v>
+        <v>0.1692218001049728</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5955124014163176</v>
+        <v>0.6654216367888789</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1799334050971489</v>
+        <v>0.159288829398821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6264285772412075</v>
+        <v>0.6263515891115817</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.4749696598306</v>
+        <v>1.410061136109138</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6937311549477959</v>
+        <v>0.6583337804796663</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.157023497752272</v>
+        <v>1.122070950091502</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9100650034247515</v>
+        <v>0.9240992623608458</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3164428741179396</v>
+        <v>0.3191613655596612</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8002303176356281</v>
+        <v>0.7650351382461332</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3529161924462815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.02147795803595712</v>
+        <v>-0.02147795803595781</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.103700207048991</v>
@@ -1083,7 +1083,7 @@
         <v>2.526056472397856</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.348766632190951</v>
+        <v>1.348766632190952</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.129150353483624</v>
@@ -1092,7 +1092,7 @@
         <v>1.454408794783101</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.777417797021434</v>
+        <v>0.7774177970214353</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9164973822214157</v>
+        <v>1.103618597008399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.322671181777433</v>
+        <v>-1.290515655300674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.606232821455728</v>
+        <v>-1.601709983794482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5290757411790501</v>
+        <v>0.2828632148536551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.0584916334179607</v>
+        <v>-0.2681111567717125</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.027776938808068</v>
+        <v>-1.080361679568694</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.601539762464804</v>
+        <v>1.577274139342856</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.01308093901798301</v>
+        <v>-0.1393423173912289</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5796551161796223</v>
+        <v>-0.5959569858371858</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.156778881235497</v>
+        <v>5.192170595265948</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.328796098227052</v>
+        <v>2.215845381064732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.487877844756678</v>
+        <v>1.592067232955108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.821220637588707</v>
+        <v>5.714199731816551</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.08996808891742</v>
+        <v>5.418500665778577</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.60127529967792</v>
+        <v>3.489186930302045</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.840853095676278</v>
+        <v>4.905721314839815</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.142129266830757</v>
+        <v>3.143761817125384</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.147799259464185</v>
+        <v>2.112716366927262</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1026384618797492</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.006246425140903634</v>
+        <v>-0.006246425140903836</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4333228058368108</v>
@@ -1188,7 +1188,7 @@
         <v>0.3526751313917728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1883079236044344</v>
+        <v>0.1883079236044346</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6031353049590776</v>
@@ -1197,7 +1197,7 @@
         <v>0.2803333789953859</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1498451870697529</v>
+        <v>0.1498451870697531</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1902568558120108</v>
+        <v>0.2694811871952625</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.327252268571507</v>
+        <v>-0.3266167909471525</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3918474293452119</v>
+        <v>-0.3790582043250599</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05484193584498825</v>
+        <v>0.03006229440936055</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01404363491920833</v>
+        <v>-0.05056479998984081</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1335184985628789</v>
+        <v>-0.1329104597568876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.284459859979999</v>
+        <v>0.2616713088940302</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.005204861223275042</v>
+        <v>-0.03931244471631108</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1022567508459892</v>
+        <v>-0.115800333836207</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.834928365198391</v>
+        <v>1.966692016377258</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8191521865749491</v>
+        <v>0.7889615518838895</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5288197654581398</v>
+        <v>0.6354161659516069</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.947697196484297</v>
+        <v>0.9241201850504784</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8389745839936992</v>
+        <v>0.8757930503483876</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6001767569537785</v>
+        <v>0.5939597115288507</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.090762738937329</v>
+        <v>1.107803808149684</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6925612019304868</v>
+        <v>0.7080766989175061</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5009595600338604</v>
+        <v>0.4614228772916845</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.401101380955685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03684274751575012</v>
+        <v>0.03684274751574942</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.56278177858352</v>
@@ -1306,7 +1306,7 @@
         <v>2.563828472001361</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.16211810618947</v>
+        <v>1.162118106189469</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2467431930168704</v>
+        <v>-0.5360051752229043</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9917051204681455</v>
+        <v>-0.9970968429240393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.994630616249502</v>
+        <v>-2.148151870293538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01835029832648789</v>
+        <v>-0.4227968704421016</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2293880406361271</v>
+        <v>-0.2948776279874444</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.549471327757524</v>
+        <v>-1.149077934919414</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8376697409838532</v>
+        <v>0.6561274236890424</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1755645289758788</v>
+        <v>0.1827137610532326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6450325056898382</v>
+        <v>-0.5899896005612325</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.371610609298891</v>
+        <v>5.152347601158421</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.157200819062624</v>
+        <v>3.989576156713337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.203258917273704</v>
+        <v>1.937291440850659</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.769574295656518</v>
+        <v>7.11369884870185</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.025860158626293</v>
+        <v>7.295345634901274</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.974095384248831</v>
+        <v>4.855185786036852</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.465701244654072</v>
+        <v>5.483258177946368</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.789519204791095</v>
+        <v>4.788066111225742</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.955638274469009</v>
+        <v>2.782439412979398</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4402348566421752</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.01157622274259475</v>
+        <v>0.01157622274259453</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6091246451249017</v>
@@ -1411,7 +1411,7 @@
         <v>0.5912215989791511</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2679856833041663</v>
+        <v>0.2679856833041661</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1106545126401303</v>
+        <v>-0.160335071352556</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2456510976203365</v>
+        <v>-0.2853364507734586</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4633267979471137</v>
+        <v>-0.5076528623632648</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.002460126371419511</v>
+        <v>-0.08663633037889426</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05660802176958549</v>
+        <v>-0.05789496190548912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1827320697778222</v>
+        <v>-0.1424653206785179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1030555057555938</v>
+        <v>0.1155199884745301</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02254676495916645</v>
+        <v>-0.006282416908753308</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1098132057343264</v>
+        <v>-0.1150449419979248</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.365401952795923</v>
+        <v>2.487531189055318</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.96870022620092</v>
+        <v>1.892185509512167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.107889197446434</v>
+        <v>0.9521390772680127</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.906399176915373</v>
+        <v>1.862550217100784</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.777708233654212</v>
+        <v>1.789392891071809</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.335919774333721</v>
+        <v>1.303907418348311</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.621631415649945</v>
+        <v>1.688529432708504</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.434980299018012</v>
+        <v>1.480840302199905</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9309615705978649</v>
+        <v>0.8562694023188532</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.06973196144883509</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04346964176022844</v>
+        <v>0.04346964176022636</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.223677130270031</v>
@@ -1511,7 +1511,7 @@
         <v>2.807754843844362</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.333561513544669</v>
+        <v>2.33356151354467</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.236521978852001</v>
@@ -1520,7 +1520,7 @@
         <v>1.487890776897891</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.251200280153363</v>
+        <v>1.251200280153365</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1720602836865942</v>
+        <v>-0.02257510436826722</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.047614991428497</v>
+        <v>-1.100189581285964</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.10846370286612</v>
+        <v>-1.151874316663276</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.578453971443452</v>
+        <v>3.460398320518418</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.256857973602665</v>
+        <v>1.300586133016465</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.069140917598881</v>
+        <v>0.967933055380253</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.223650360097842</v>
+        <v>2.189048078994083</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4651890569709515</v>
+        <v>0.4671624160826654</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3093114255430747</v>
+        <v>0.3248983057326251</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.461511773118879</v>
+        <v>2.616619003823768</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.341624307657103</v>
+        <v>1.250400022088889</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.28477678982585</v>
+        <v>1.208245969084584</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.825552116940342</v>
+        <v>6.773421694836576</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.281046385190915</v>
+        <v>4.280565675870596</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.725745270615624</v>
+        <v>3.712950136463851</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.306942869375554</v>
+        <v>4.278594832281894</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.428178912882831</v>
+        <v>2.459308487769468</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.128368451932265</v>
+        <v>2.143032314250045</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.01173837185471008</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.007317488405184104</v>
+        <v>0.007317488405183753</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5593592903747518</v>
@@ -1616,7 +1616,7 @@
         <v>0.3006586582271917</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2498813153474327</v>
+        <v>0.2498813153474328</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4224432201372516</v>
@@ -1625,7 +1625,7 @@
         <v>0.194205191595272</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1633114432215594</v>
+        <v>0.1633114432215598</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02899259231719561</v>
+        <v>-0.003400843399396824</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1621835689309102</v>
+        <v>-0.1719728372295454</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1689757946513686</v>
+        <v>-0.1784137887668491</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3572019142764218</v>
+        <v>0.3426851482732213</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1223054996359678</v>
+        <v>0.1274258320475476</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1043205857843085</v>
+        <v>0.09383159231033184</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2742174359946908</v>
+        <v>0.2692707833846462</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05689730410773409</v>
+        <v>0.06091749309322855</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.03711846073849943</v>
+        <v>0.04004365808898744</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4567102408201388</v>
+        <v>0.4814833091954047</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2648433610821714</v>
+        <v>0.2359872147147168</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2373533396244122</v>
+        <v>0.2216630221482173</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7991547779690075</v>
+        <v>0.787722620236719</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4991816197648825</v>
+        <v>0.5076469004327209</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4411668664097304</v>
+        <v>0.433077333767751</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6036739347869223</v>
+        <v>0.6025609917903301</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.338637846399571</v>
+        <v>0.3450976157846345</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2964859954289359</v>
+        <v>0.2951540829987686</v>
       </c>
     </row>
     <row r="34">
